--- a/MyFinalProject_SauceDemo/src/test/resources/TestData/Sauce_Test_Data.xlsx
+++ b/MyFinalProject_SauceDemo/src/test/resources/TestData/Sauce_Test_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14835" windowHeight="3870"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15960" windowHeight="4590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>USERNAME</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>standard_user</t>
-  </si>
-  <si>
-    <t>problem_user</t>
   </si>
   <si>
     <t>performance_glitch_user</t>
@@ -390,7 +387,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -412,7 +409,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -420,27 +417,18 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2">
